--- a/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThickFilter_Analysis.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/DataAnalysis/Rev2_Mixed/ThickFilter_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\DataAnalysis\Rev2_Mixed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63636EF4-D2AC-4DDC-93FA-62E312FE8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C03ECC6-2B2E-4F16-A718-9AE9CE50BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9EDBC4B-5209-4052-BD5C-CBCCBA64D68C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>SRIM SIMULATIONS</t>
   </si>
   <si>
-    <t>PROTONS VS THICK FILTER</t>
+    <t>INPUT ANGLE = 0 DEG</t>
   </si>
   <si>
     <t>Initial energy [keV]</t>
@@ -67,10 +67,10 @@
     <t>Error on mean energy loss [keV]</t>
   </si>
   <si>
-    <t>INPUT ANGLE = 0 DEG</t>
+    <t>Number of ions transmitted [%]</t>
   </si>
   <si>
-    <t>Number of ions passed [%]</t>
+    <t>PROTONS VS THICK FILTERS</t>
   </si>
 </sst>
 </file>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,11 +95,6 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -110,7 +105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,74 +151,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -278,7 +226,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" b="1"/>
-              <a:t>Protons vs thick filter of MOS camera on board XMM-Newton</a:t>
+              <a:t>Protons</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" b="1"/>
+              <a:t>vs thick filter of MOS camera on board XMM-Newton</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -322,7 +278,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -344,16 +300,31 @@
             </c:spPr>
           </c:marker>
           <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$E$6:$E$21</c:f>
+                <c:f>Foglio1!$E$6:$E$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="20"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -388,29 +359,41 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>1.93</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
+                    <c:v>1.597</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0</c:v>
+                    <c:v>1.397</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0</c:v>
+                    <c:v>1.222</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>1.0960000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.4835352376000002</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.3689154700999999</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.22515489</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>9.5506263240000013</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$E$6:$E$21</c:f>
+                <c:f>Foglio1!$E$6:$E$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="20"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -445,19 +428,31 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>1.93</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
+                    <c:v>1.597</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0</c:v>
+                    <c:v>1.397</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0</c:v>
+                    <c:v>1.222</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>1.0960000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.4835352376000002</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.3689154700999999</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.22515489</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>9.5506263240000013</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -478,10 +473,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$6:$A$21</c:f>
+              <c:f>Foglio1!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -529,63 +524,87 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$6:$C$21</c:f>
+              <c:f>Foglio1!$C$6:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="4" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="6" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>0</c:v>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>60.665949999999995</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>83.080839999999995</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>105.97722999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>128.77547000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>147.81704000000002</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>158.887</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>170.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>175.76300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>203.53100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +612,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7EC1-402F-A899-7EEE7B50A0F8}"/>
+              <c16:uniqueId val="{00000000-F908-435A-A04A-C92BC7262312}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -605,11 +624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="611888320"/>
-        <c:axId val="611886880"/>
+        <c:axId val="662016096"/>
+        <c:axId val="662024256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="611888320"/>
+        <c:axId val="662016096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,12 +740,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611886880"/>
+        <c:crossAx val="662024256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="611886880"/>
+        <c:axId val="662024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +820,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -838,7 +857,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611888320"/>
+        <c:crossAx val="662016096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -968,7 +987,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -990,16 +1009,31 @@
             </c:spPr>
           </c:marker>
           <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$H$6:$H$21</c:f>
+                <c:f>Foglio1!$H$6:$H$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="20"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1034,29 +1068,41 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>1.8876275159294467</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
+                    <c:v>1.0941138597058</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0</c:v>
+                    <c:v>0.71213231078034422</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0</c:v>
+                    <c:v>0.48608928128936341</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>0.38691428376593101</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.4772444353499582</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.40091483138562573</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.34320619993360374</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.1805427902872583</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$H$6:$H$21</c:f>
+                <c:f>Foglio1!$H$6:$H$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="20"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1091,19 +1137,31 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>1.8876275159294467</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
+                    <c:v>1.0941138597058</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0</c:v>
+                    <c:v>0.71213231078034422</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0</c:v>
+                    <c:v>0.48608928128936341</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>0.38691428376593101</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.4772444353499582</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.40091483138562573</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.34320619993360374</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.1805427902872583</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1124,10 +1182,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$6:$A$21</c:f>
+              <c:f>Foglio1!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1175,17 +1233,29 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$G$6:$G$21</c:f>
+              <c:f>Foglio1!$G$6:$G$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1197,41 +1267,53 @@
                 <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="4">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.0">
+                <c:pt idx="7">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.0">
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.0">
+                <c:pt idx="9">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.0">
+                <c:pt idx="10">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0.0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>200</c:v>
+                <c:pt idx="11">
+                  <c:v>59.334050000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.919160000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.022770000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.224529999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.18295999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.836000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.236999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.468999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,7 +1321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E02-4254-92AE-EF61DDCC0E80}"/>
+              <c16:uniqueId val="{00000000-99E1-46C1-B569-B67D57987300}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,11 +1333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="407306080"/>
-        <c:axId val="407309920"/>
+        <c:axId val="662030976"/>
+        <c:axId val="662036736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="407306080"/>
+        <c:axId val="662030976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1368,12 +1450,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407309920"/>
+        <c:crossAx val="662036736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="407309920"/>
+        <c:axId val="662036736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1530,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1485,7 +1567,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407306080"/>
+        <c:crossAx val="662030976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1643,10 +1725,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$E$10:$E$21</c:f>
+                <c:f>Foglio1!$E$11:$E$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1666,32 +1748,41 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.93</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.597</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>1.397</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>1.222</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>1.0960000000000001</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>1.4835352376000002</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.3689154700999999</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.22515489</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9.5506263240000013</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$E$10:$E$21</c:f>
+                <c:f>Foglio1!$E$11:$E$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1711,22 +1802,31 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.93</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.597</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>1.397</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>1.222</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>1.0960000000000001</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>1.4835352376000002</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.3689154700999999</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.22515489</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9.5506263240000013</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1752,10 +1852,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Foglio1!$H$10:$H$21</c:f>
+                <c:f>Foglio1!$H$11:$H$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1775,32 +1875,41 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.8876275159294467</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.0941138597058</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.71213231078034422</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.48608928128936341</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.38691428376593101</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>0.4772444353499582</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.40091483138562573</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.34320619993360374</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1805427902872583</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Foglio1!$H$10:$H$21</c:f>
+                <c:f>Foglio1!$H$11:$H$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -1820,22 +1929,31 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.8876275159294467</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.0941138597058</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.71213231078034422</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>0.48608928128936341</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0</c:v>
+                    <c:v>0.38691428376593101</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>0.4772444353499582</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.40091483138562573</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.34320619993360374</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1805427902872583</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1856,10 +1974,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$C$10:$C$21</c:f>
+              <c:f>Foglio1!$C$11:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1878,68 +1996,86 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>0</c:v>
+                <c:pt idx="6">
+                  <c:v>60.665949999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>83.080839999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>105.97722999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>128.77547000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>147.81704000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>158.887</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175.76300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203.53100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$G$10:$G$21</c:f>
+              <c:f>Foglio1!$G$11:$G$25</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.0">
+                <c:pt idx="3">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.0">
+                <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.0">
+                <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>200</c:v>
+                <c:pt idx="6">
+                  <c:v>59.334050000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.919160000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.022770000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.224529999999987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.18295999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.836000000000013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.236999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.468999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,7 +2083,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-956A-498D-BBB3-EC454F5661D8}"/>
+              <c16:uniqueId val="{00000000-0F0C-4902-B74F-F77732F067A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1959,11 +2095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="607593136"/>
-        <c:axId val="607584016"/>
+        <c:axId val="245273424"/>
+        <c:axId val="245265264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="607593136"/>
+        <c:axId val="245273424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2005,7 +2141,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Mean final energy [keV]</a:t>
+                  <a:t>Mean final energy [keV}</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2039,7 +2175,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2076,12 +2212,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607584016"/>
+        <c:crossAx val="245265264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607584016"/>
+        <c:axId val="245265264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2292,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2193,7 +2329,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607593136"/>
+        <c:crossAx val="245273424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3916,23 +4052,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D1368C-264A-8AEB-849B-83E6FB5D1C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E9FC17-06BF-F010-E39A-7941BB58D944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,23 +4088,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E6FEA6-8AC6-B142-71F8-9FA04159DC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE523AF-BB09-808B-2515-447D814F302D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3989,22 +4125,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1007745</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176237</xdr:rowOff>
+      <xdr:colOff>1005430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5512190-2CFD-559D-27C5-D279885DEBE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B93D399-58E7-49B0-6720-70C3E2D086C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4322,583 +4458,724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FF5184-98A8-4C01-B982-DAA346D3A3E7}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4">
         <f>B6/1000</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4">
         <f>D6/1000</f>
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" ref="G6:G21" si="0">A6-C6</f>
+      <c r="G6" s="4">
+        <f>A6-C6</f>
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <f>F6*G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C25" si="0">B7/1000</f>
         <v>0</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" ref="C7:C21" si="1">B7/1000</f>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E23" si="1">D7/1000</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:E21" si="2">D7/2000</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G21" si="2">A7-C7</f>
         <v>10</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="8">
         <f t="shared" ref="H7:H21" si="3">F7*G7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>30</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6"/>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>40</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" s="11" t="e">
-        <f t="shared" ref="F10" si="4">(D10/B10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H10" s="8" t="e">
-        <f>F10*G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>50</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="6"/>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5">
+      <c r="F11" s="5" t="e">
+        <f t="shared" ref="F11:F21" si="4">E11/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="11" t="e">
-        <f t="shared" ref="F11:F21" si="5">(D11/B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H11" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>60</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8">
+        <f>B12/1000</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5">
-        <f>D12/2000</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f>(D12/B12)</f>
+      <c r="F12" s="5" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H12" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>70</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5">
+      <c r="F13" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H13" s="10" t="e">
+      <c r="H13" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>80</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5">
+      <c r="F14" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H14" s="10" t="e">
+      <c r="H14" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>90</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5">
+      <c r="B15" s="6"/>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5">
+      <c r="F15" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H15" s="10" t="e">
+      <c r="H15" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>100</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10">
+      <c r="F16" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H16" s="10" t="e">
+      <c r="H16" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <f>A16+20</f>
         <v>120</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="B17" s="6">
+        <v>60665.95</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>60.665949999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1930</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1813562632745387E-2</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H17" s="10" t="e">
+        <v>59.334050000000005</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="12"/>
+        <v>1.8876275159294467</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <f>A17+20</f>
         <v>140</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="B18" s="6">
+        <v>83080.84</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>83.080839999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1597</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5">
+        <v>1.597</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9222241855041428E-2</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H18" s="10" t="e">
+        <v>56.919160000000005</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="12"/>
+        <v>1.0941138597058</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <f>A18+20</f>
         <v>160</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
+      <c r="B19" s="6">
+        <v>105977.23</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>105.97722999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1397</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5">
+        <v>1.397</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3182076942377151E-2</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H19" s="5" t="e">
+        <v>54.022770000000008</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="12"/>
+        <v>0.71213231078034422</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <f>A19+20</f>
         <v>180</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
+      <c r="B20" s="6">
+        <v>128775.47</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="0"/>
+        <v>128.77547000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1222</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="H20" s="5" t="e">
+        <v>1.222</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>9.4893848960520191E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <f>A20-C20</f>
+        <v>51.224529999999987</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="12"/>
+        <v>0.48608928128936341</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <f>A20+20</f>
+      <c r="A21" s="3">
         <v>200</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
+      <c r="B21" s="6">
+        <v>147817.04</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>147.81704000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1096</v>
+      </c>
+      <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4145714188296559E-3</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="11" t="e">
+        <v>52.18295999999998</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.38691428376593101</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>210</v>
+      </c>
+      <c r="B22" s="6">
+        <v>158887</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>158.887</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1483.5352376000001</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E23" si="5">D22/1000</f>
+        <v>1.4835352376000002</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="6">E22/C22</f>
+        <v>9.3370460616664687E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:G23" si="7">A22-C22</f>
+        <v>51.113</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22:H23" si="8">F22*G22</f>
+        <v>0.4772444353499582</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>220</v>
+      </c>
+      <c r="B23" s="6">
+        <v>170164</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>170.16399999999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1368.9154701</v>
+      </c>
+      <c r="E23" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="5">
+        <v>1.3689154700999999</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="6"/>
+        <v>8.0446831885710255E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="7"/>
+        <v>49.836000000000013</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="8"/>
+        <v>0.40091483138562573</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>225</v>
+      </c>
+      <c r="B24" s="6">
+        <v>175763</v>
+      </c>
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H21" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="12"/>
+        <v>175.76300000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1225.15489</v>
+      </c>
+      <c r="E24" s="8">
+        <f>D24/1000</f>
+        <v>1.22515489</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="9">E24/C24</f>
+        <v>6.970493733038239E-3</v>
+      </c>
+      <c r="G24" s="8">
+        <f>A24-C24</f>
+        <v>49.236999999999995</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24:H25" si="10">F24*G24</f>
+        <v>0.34320619993360374</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>250</v>
+      </c>
+      <c r="B25" s="6">
+        <v>203531</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>203.53100000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>9550.6263240000007</v>
+      </c>
+      <c r="E25" s="8">
+        <f>D25/1000</f>
+        <v>9.5506263240000013</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="9"/>
+        <v>4.6924676457149039E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" ref="G25" si="11">A25-C25</f>
+        <v>46.468999999999994</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="10"/>
+        <v>2.1805427902872583</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>